--- a/fuentes/contenidos/grado07/guion02/SolicitudGrafica_LE_07_02_CO.xlsx
+++ b/fuentes/contenidos/grado07/guion02/SolicitudGrafica_LE_07_02_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hX79YNGfHMUCcosWMoH0GQuhNo2gkebFrfW3do2TOcvwqaujU9m0uwOL5UkRtWEspAy/ISD2JB8+jf057W9mVA==" workbookSaltValue="uRz/CDpmZ5ecKheoN1C0Jw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14860" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="216">
   <si>
     <t>Fecha:</t>
   </si>
@@ -659,35 +659,22 @@
     <t>Utilizar la fotografía de Neruda que se puede apreciar en el audio de uno de sus poemas. Está tanto en AulaPlaneta como en Hispánicasaber.</t>
   </si>
   <si>
-    <t>Solicitar a España</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Claude Monet, Estanque con nenúfares (1899). </t>
-  </si>
-  <si>
-    <t>Solicitar a España-</t>
-  </si>
-  <si>
-    <t>Orquídea colombiana. Cattleya trianae. Flor nacional de Colombia.</t>
-  </si>
-  <si>
-    <t>Solicitar a España.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 Eso/Lengua castellana y literatura/Los medios de comunicación/Los diferentes tipos de medios de comunicación/La televisión y el cine/las características de la televisión
-http://profesores.aulaplaneta.com/DNNPlayerPackages/Package10455/InfoGuion/cuadernoestudio/images_xml/LC_07_15_img05_small.jpg
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La imagen muestra el impacto de un avión a las Torres Gemelas en New York, </t>
-  </si>
-  <si>
-    <t>Imagen que muestra el manejo de la información que sucede en el mundo por parte de un usuario y desde su computador portátil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 Eso/Lengua castellana y literatura/Los medios de comunicación/Los diferentes tipos de medios de comunicación/El medio de medios: Internet
-http://profesores.aulaplaneta.com/DNNPlayerPackages/Package11744/InfoGuion/cuadernoestudio/images_xml/LC_07_15_img06_zoom.jpg
-</t>
+    <t>Oso hormiguero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edificios y escombros </t>
+  </si>
+  <si>
+    <t>Niñas estudiando en un portátil</t>
+  </si>
+  <si>
+    <t>http://hispanicasaber.planetasaber.com/encyclopedia/default.asp?idreg=139517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los lirios, Vincent Van Gogh, 1889 (Museo Paul Getty, Los Ángeles, Estados Unidos), </t>
+  </si>
+  <si>
+    <t>0008ZZ01</t>
   </si>
 </sst>
 </file>
@@ -697,7 +684,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -858,8 +845,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Century Gothic"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -903,6 +895,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1408,7 +1406,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1728,6 +1726,10 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="24" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="53">
@@ -2471,7 +2473,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -2843,22 +2845,22 @@
         <v>M101</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="11" customFormat="1" ht="26">
+    <row r="12" spans="1:16" s="11" customFormat="1" ht="52">
       <c r="A12" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG03</v>
       </c>
-      <c r="B12" s="62" t="s">
-        <v>210</v>
+      <c r="B12" s="109" t="s">
+        <v>213</v>
       </c>
       <c r="C12" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D12" s="63" t="s">
+      <c r="D12" s="109" t="s">
         <v>190</v>
       </c>
-      <c r="E12" s="63" t="s">
+      <c r="E12" s="109" t="s">
         <v>153</v>
       </c>
       <c r="F12" s="13" t="str">
@@ -2877,11 +2879,11 @@
         <f ca="1">IF(OR($B12&lt;&gt;"",$J12&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J12" s="64" t="s">
-        <v>211</v>
+      <c r="J12" s="109" t="s">
+        <v>214</v>
       </c>
       <c r="K12" s="64" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="O12" s="2" t="str">
         <f>'Definición técnica de imagenes'!A18</f>
@@ -3189,22 +3191,22 @@
         <v>F10</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="11" customFormat="1" ht="26">
+    <row r="20" spans="1:15" s="11" customFormat="1">
       <c r="A20" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG11</v>
       </c>
-      <c r="B20" s="62" t="s">
-        <v>210</v>
+      <c r="B20" s="109">
+        <v>122365849</v>
       </c>
       <c r="C20" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D20" s="63" t="s">
+      <c r="D20" s="109" t="s">
         <v>190</v>
       </c>
-      <c r="E20" s="63" t="s">
+      <c r="E20" s="109" t="s">
         <v>153</v>
       </c>
       <c r="F20" s="13" t="str">
@@ -3223,33 +3225,31 @@
         <f ca="1">IF(OR($B20&lt;&gt;"",$J20&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E20,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E20,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J20" s="64" t="s">
-        <v>213</v>
-      </c>
-      <c r="K20" s="66" t="s">
-        <v>214</v>
-      </c>
+      <c r="J20" s="109" t="s">
+        <v>210</v>
+      </c>
+      <c r="K20" s="66"/>
       <c r="O20" s="2" t="str">
         <f>'Definición técnica de imagenes'!A32</f>
         <v>F10B</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="11" customFormat="1" ht="221">
+    <row r="21" spans="1:15" s="11" customFormat="1">
       <c r="A21" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG12</v>
       </c>
-      <c r="B21" s="62" t="s">
-        <v>215</v>
+      <c r="B21" s="109">
+        <v>284905</v>
       </c>
       <c r="C21" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D21" s="63" t="s">
+      <c r="D21" s="109" t="s">
         <v>190</v>
       </c>
-      <c r="E21" s="63" t="s">
+      <c r="E21" s="109" t="s">
         <v>153</v>
       </c>
       <c r="F21" s="13" t="str">
@@ -3268,8 +3268,8 @@
         <f ca="1">IF(OR($B21&lt;&gt;"",$J21&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E21,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E21,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J21" s="66" t="s">
-        <v>216</v>
+      <c r="J21" s="109" t="s">
+        <v>211</v>
       </c>
       <c r="K21" s="66"/>
       <c r="O21" s="2" t="str">
@@ -3365,22 +3365,22 @@
         <v>F13</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="11" customFormat="1" ht="195">
+    <row r="24" spans="1:15" s="11" customFormat="1">
       <c r="A24" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG15</v>
       </c>
-      <c r="B24" s="62" t="s">
-        <v>218</v>
+      <c r="B24" s="109">
+        <v>65750917</v>
       </c>
       <c r="C24" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D24" s="63" t="s">
+      <c r="D24" s="109" t="s">
         <v>190</v>
       </c>
-      <c r="E24" s="63" t="s">
+      <c r="E24" s="109" t="s">
         <v>153</v>
       </c>
       <c r="F24" s="13" t="str">
@@ -3399,8 +3399,8 @@
         <f ca="1">IF(OR($B24&lt;&gt;"",$J24&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E24,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E24,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J24" s="63" t="s">
-        <v>217</v>
+      <c r="J24" s="109" t="s">
+        <v>212</v>
       </c>
       <c r="K24" s="65"/>
       <c r="O24" s="2" t="str">
@@ -6073,7 +6073,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
